--- a/biology/Botanique/Sophie_Dugerdil/Sophie_Dugerdil.xlsx
+++ b/biology/Botanique/Sophie_Dugerdil/Sophie_Dugerdil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Dugerdil, née en 1970 à Dardagny, est une vigneronne encaveuse suisse. Elle dirige le domaine Dugerdil à Dardagny, dans le canton de Genève.
 </t>
@@ -513,15 +525,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et formation
-Sophie Dugerdil naît à Dardagny[1] en 1970[2].    
-Après une maturité professionnelle de type commercial et une école d'éducation physique et de sport, elle travaille dans une fiduciaire et fait des remplacements comme professeur de sport[3]. À 23 ans, elle entreprend des études universitaires de géographie[3]. Sa licence en poche, elle devient enseignante de sport, de civisme et de géographie[4],[5] pendant deux ans dans une école[3].   
-Elle se lance en 1999[1] dans deux missions pour le Comité international de la Croix-Rouge, au Népal puis au Sri Lanka[4], pendant trois ans[5]. À son retour, elle fait un stage dans un domaine voisin[5] puis suit une formation d'œnologie à l'école d'ingénieurs de Changins à Nyon[1],[6].
-Vigneronne
-Elle reprend le domaine viticole de neuf hectares[4] de son père à Dardagny[6] en 2004 et y crée son propre vin[7],[8],[9] (son père livrait sa production à une coopérative sans vinifier[3]), dans une perspective de viticulture durable et biologique[2], tout en travaillant encore à mi-temps comme enseignante jusqu'à la fin de l'année scolaire 2009 à l'École de culture générale Henry-Dunant[3],[6]. Le domaine obtient[Quand ?] le label Bourgeon[7],[6]. Elle vend sa production (35 000 bouteilles en 2019) principalement à des restaurants (80 % en 2017)[10].  
-Elle est présidente de l'Association genevoise des vignerons-encaveurs indépendants[11].
-Vie privée
-Elle est mère de deux enfants[1].
+          <t>Origines et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Dugerdil naît à Dardagny en 1970.    
+Après une maturité professionnelle de type commercial et une école d'éducation physique et de sport, elle travaille dans une fiduciaire et fait des remplacements comme professeur de sport. À 23 ans, elle entreprend des études universitaires de géographie. Sa licence en poche, elle devient enseignante de sport, de civisme et de géographie, pendant deux ans dans une école.   
+Elle se lance en 1999 dans deux missions pour le Comité international de la Croix-Rouge, au Népal puis au Sri Lanka, pendant trois ans. À son retour, elle fait un stage dans un domaine voisin puis suit une formation d'œnologie à l'école d'ingénieurs de Changins à Nyon,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sophie_Dugerdil</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dugerdil</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vigneronne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle reprend le domaine viticole de neuf hectares de son père à Dardagny en 2004 et y crée son propre vin (son père livrait sa production à une coopérative sans vinifier), dans une perspective de viticulture durable et biologique, tout en travaillant encore à mi-temps comme enseignante jusqu'à la fin de l'année scolaire 2009 à l'École de culture générale Henry-Dunant,. Le domaine obtient[Quand ?] le label Bourgeon,. Elle vend sa production (35 000 bouteilles en 2019) principalement à des restaurants (80 % en 2017).  
+Elle est présidente de l'Association genevoise des vignerons-encaveurs indépendants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Dugerdil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Dugerdil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mère de deux enfants.
 </t>
         </is>
       </c>
